--- a/Documentos/Registro de gastos.xlsx
+++ b/Documentos/Registro de gastos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://continental-my.sharepoint.com/personal/uidd7372_contiwan_com/Documents/CCC/2022/3 - Custom Robotics/Talent Land/Hackathon/2023/Talent-Hackathon-2023/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC104847C19B7E105ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A30AE62-2257-4141-AD56-1C4B631FECC7}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104847C19B7E105ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A115F5-7D77-487E-BF8A-8560BBCE66D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,16 +404,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -436,7 +436,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -444,7 +444,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -452,7 +452,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -460,7 +460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -468,7 +468,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -476,7 +476,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>

--- a/Documentos/Registro de gastos.xlsx
+++ b/Documentos/Registro de gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://continental-my.sharepoint.com/personal/uidd7372_contiwan_com/Documents/CCC/2022/3 - Custom Robotics/Talent Land/Hackathon/2023/Talent-Hackathon-2023/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104847C19B7E105ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A115F5-7D77-487E-BF8A-8560BBCE66D8}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC104847C19B7E105ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C05AADA-EA17-413C-B57B-8A76C0A6387C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="27000" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Descripción</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Pieza 3D</t>
+  </si>
+  <si>
+    <t>Helices 18 pulgadas</t>
+  </si>
+  <si>
+    <t>Tubos fibra carbono 33cm</t>
+  </si>
+  <si>
+    <t>Mantel</t>
+  </si>
+  <si>
+    <t>Banner</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +437,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(B2:B49)</f>
-        <v>1709</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,10 +502,45 @@
       </c>
       <c r="B9">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" removed="0"/>
+</clbl:labelList>
 </file>